--- a/results/RMD.xlsx
+++ b/results/RMD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5906,6 +5906,1650 @@
       </c>
       <c r="P113" t="n">
         <v>-23.45099134856131</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>39</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>1.409609794616699</v>
+      </c>
+      <c r="E114" t="n">
+        <v>72.04471941020904</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>76.35782374402123</v>
+      </c>
+      <c r="H114" t="n">
+        <v>40</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-20.60703686114648</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>4.313104333812191</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>57</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>1.642443180084228</v>
+      </c>
+      <c r="E115" t="n">
+        <v>44.22814014300676</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>63.55909981314688</v>
+      </c>
+      <c r="H115" t="n">
+        <v>49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-7.458190880166554</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>19.33095967014012</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>106</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>2.478301286697388</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-51.02672031811447</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>8.395427735425463</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-60.47610900809964</v>
+      </c>
+      <c r="J116" t="n">
+        <v>33</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>11</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-35.48974102212571</v>
+      </c>
+      <c r="N116" t="n">
+        <v>59.42214805353994</v>
+      </c>
+      <c r="O116" t="n">
+        <v>15.53697929598876</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-43.88516875755117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>184</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>1.382588744163513</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16.9380828324206</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>18.07815026895349</v>
+      </c>
+      <c r="H117" t="n">
+        <v>50</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-15.30948308112219</v>
+      </c>
+      <c r="J117" t="n">
+        <v>26</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.140067436532888</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>185</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1.396099090576172</v>
+      </c>
+      <c r="E118" t="n">
+        <v>17.7419418190661</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>18.54838883973679</v>
+      </c>
+      <c r="H118" t="n">
+        <v>52</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-16.12905113983999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>25</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.8064470206706851</v>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>224</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>1.402854442596436</v>
+      </c>
+      <c r="E119" t="n">
+        <v>13.16212208093883</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>29.2135077557315</v>
+      </c>
+      <c r="H119" t="n">
+        <v>48</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-7.383607842825938</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>31</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.481543331591887</v>
+      </c>
+      <c r="N119" t="n">
+        <v>16.05138567479267</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-12.68057874934694</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-28.73196442413961</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>271</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>1.621276378631592</v>
+      </c>
+      <c r="E120" t="n">
+        <v>41.38889485283067</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>64.72223571498978</v>
+      </c>
+      <c r="H120" t="n">
+        <v>42</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-9.444442310450935</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>19</v>
+      </c>
+      <c r="M120" t="n">
+        <v>11.38887720609883</v>
+      </c>
+      <c r="N120" t="n">
+        <v>23.33334086215911</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-30.00001764673184</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-53.33335850889095</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>292</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>1.927517533302307</v>
+      </c>
+      <c r="E121" t="n">
+        <v>44.85980713071017</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>49.06537907059779</v>
+      </c>
+      <c r="H121" t="n">
+        <v>45</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-7.943928409366014</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>4.205571939887619</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>305</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>2.341844081878662</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.846124870016572</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>25.38459160822876</v>
+      </c>
+      <c r="H122" t="n">
+        <v>40</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-9.230792005497818</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>21.53846673821219</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>372</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>2.990354537963867</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-17.92168934058848</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.024090400981018</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-34.63855776641556</v>
+      </c>
+      <c r="J123" t="n">
+        <v>43</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>14</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-13.25301041518503</v>
+      </c>
+      <c r="N123" t="n">
+        <v>23.9457797415695</v>
+      </c>
+      <c r="O123" t="n">
+        <v>4.668678925403446</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-19.27710081616605</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>478</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>2.657092094421387</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.52543121131104</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>13.05081747678607</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-24.4067911763744</v>
+      </c>
+      <c r="J124" t="n">
+        <v>19</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>19</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-20.16950372250296</v>
+      </c>
+      <c r="N124" t="n">
+        <v>14.57624868809711</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-18.64407251119191</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-33.22032119928902</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>479</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>2.792198181152344</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-6.612905043732033</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.580627841206273</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-28.06451959140445</v>
+      </c>
+      <c r="J125" t="n">
+        <v>18</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>18</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-24.03226175545593</v>
+      </c>
+      <c r="N125" t="n">
+        <v>14.19353288493831</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-17.41935671172389</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-31.6128895966622</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>522</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>2.530991792678833</v>
+      </c>
+      <c r="E126" t="n">
+        <v>19.21709904783919</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>41.81500352930704</v>
+      </c>
+      <c r="H126" t="n">
+        <v>28</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-3.558715539817864</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>37</v>
+      </c>
+      <c r="M126" t="n">
+        <v>25.62279873045227</v>
+      </c>
+      <c r="N126" t="n">
+        <v>22.59790448146785</v>
+      </c>
+      <c r="O126" t="n">
+        <v>6.405699682613086</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-16.19220479885477</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>641</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>2.52198600769043</v>
+      </c>
+      <c r="E127" t="n">
+        <v>54.50775271186097</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>67.31564689951659</v>
+      </c>
+      <c r="H127" t="n">
+        <v>47</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-2.142855135761927</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>15</v>
+      </c>
+      <c r="M127" t="n">
+        <v>11.07142803122261</v>
+      </c>
+      <c r="N127" t="n">
+        <v>12.80789418765563</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-43.43632468063836</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-56.24421886829398</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>663</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>3.053404569625854</v>
+      </c>
+      <c r="E128" t="n">
+        <v>65.06680340538118</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>65.96400538352269</v>
+      </c>
+      <c r="H128" t="n">
+        <v>51</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-1.474931834442403</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>14</v>
+      </c>
+      <c r="M128" t="n">
+        <v>10.15330243282003</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.8972019781415099</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-54.91350097256115</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-55.81070295070266</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>674</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>3.607544898986816</v>
+      </c>
+      <c r="E129" t="n">
+        <v>37.51792660698403</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>50.9901693177147</v>
+      </c>
+      <c r="H129" t="n">
+        <v>50</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-7.769404751286779</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-6.76689925544275</v>
+      </c>
+      <c r="N129" t="n">
+        <v>13.47224271073067</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-44.28482586242678</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-57.75706857315745</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>701</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>4.260837554931641</v>
+      </c>
+      <c r="E130" t="n">
+        <v>16.60188477044245</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>27.83961089735005</v>
+      </c>
+      <c r="H130" t="n">
+        <v>23</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-3.632470207101186</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>31</v>
+      </c>
+      <c r="M130" t="n">
+        <v>11.51636416214469</v>
+      </c>
+      <c r="N130" t="n">
+        <v>11.2377261269076</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-5.085520608297754</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-16.32324673520536</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>770</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>5.333824634552002</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28.36439387972706</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>73.93829909299573</v>
+      </c>
+      <c r="H131" t="n">
+        <v>33</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-8.231166174730417</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>52</v>
+      </c>
+      <c r="M131" t="n">
+        <v>28.36439387972706</v>
+      </c>
+      <c r="N131" t="n">
+        <v>45.57390521326867</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-45.57390521326867</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>779</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>5.529989719390869</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37.68185486377823</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>67.76819337314927</v>
+      </c>
+      <c r="H132" t="n">
+        <v>24</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-1.858110339472609</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>43</v>
+      </c>
+      <c r="M132" t="n">
+        <v>23.81092931768442</v>
+      </c>
+      <c r="N132" t="n">
+        <v>30.08633850937104</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-13.87092554609381</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-43.95726405546485</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>789</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>6.716207027435303</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.199424248949603</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>38.13695450489625</v>
+      </c>
+      <c r="H133" t="n">
+        <v>14</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-6.083719386054551</v>
+      </c>
+      <c r="J133" t="n">
+        <v>18</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>33</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.943427812480409</v>
+      </c>
+      <c r="N133" t="n">
+        <v>33.93753025594664</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-2.255996436469194</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-36.19352669241584</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>835</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>7.765310764312744</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-3.17070817831117</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>13.7195068244655</v>
+      </c>
+      <c r="H134" t="n">
+        <v>36</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-12.80486518345049</v>
+      </c>
+      <c r="J134" t="n">
+        <v>50</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>48</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-4.390226439153929</v>
+      </c>
+      <c r="N134" t="n">
+        <v>16.89021500277667</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-1.21951826084276</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-18.10973326361943</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>865</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>7.860010623931885</v>
+      </c>
+      <c r="E135" t="n">
+        <v>24.29505697074013</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26.10870776374695</v>
+      </c>
+      <c r="H135" t="n">
+        <v>52</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-13.8554193648224</v>
+      </c>
+      <c r="J135" t="n">
+        <v>20</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>18</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-5.542162812733622</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.813650793006818</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-29.83721978347376</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-31.65087057648057</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>870</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>8.712300300598145</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.154556795904859</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>13.7719946046075</v>
+      </c>
+      <c r="H136" t="n">
+        <v>47</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-22.28260096358632</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>13</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-14.78259722583602</v>
+      </c>
+      <c r="N136" t="n">
+        <v>8.61743780870264</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-19.93715402174088</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-28.55459183044352</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>899</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>8.816470146179199</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28.59878467093554</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>39.18396974105605</v>
+      </c>
+      <c r="H137" t="n">
+        <v>50</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-3.68730324787853</v>
+      </c>
+      <c r="J137" t="n">
+        <v>24</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>10.5851850701205</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>999</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>15.73246097564697</v>
+      </c>
+      <c r="E138" t="n">
+        <v>42.98387657493043</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>43.59859893352093</v>
+      </c>
+      <c r="H138" t="n">
+        <v>52</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-22.53520762063359</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>13</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-16.71770824688919</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.6147223585904982</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-59.70158482181962</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-60.31630718041012</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>17.15830230712891</v>
+      </c>
+      <c r="E139" t="n">
+        <v>57.26670573635164</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>59.24241013970499</v>
+      </c>
+      <c r="H139" t="n">
+        <v>51</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-2.807369519146954</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>15</v>
+      </c>
+      <c r="M139" t="n">
+        <v>16.17965177883416</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.975704403353355</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-41.08705395751748</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-43.06275836087083</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>22.49488258361816</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15.63644855003015</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>29.71410223076825</v>
+      </c>
+      <c r="H140" t="n">
+        <v>43</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-22.06637531284429</v>
+      </c>
+      <c r="J140" t="n">
+        <v>10</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>51</v>
+      </c>
+      <c r="M140" t="n">
+        <v>18.39996906848575</v>
+      </c>
+      <c r="N140" t="n">
+        <v>14.07765368073809</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2.763520518455591</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-11.3141331622825</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>26.30629730224609</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20.37211076853115</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21.00174271999985</v>
+      </c>
+      <c r="H141" t="n">
+        <v>52</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-14.81846935669886</v>
+      </c>
+      <c r="J141" t="n">
+        <v>13</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>28</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.245468774969047</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.6296319514686992</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-19.1266419935621</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-19.7562739450308</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>28.30599784851075</v>
+      </c>
+      <c r="E142" t="n">
+        <v>22.94952425778249</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>40.55801908511354</v>
+      </c>
+      <c r="H142" t="n">
+        <v>44</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-19.30703866043314</v>
+      </c>
+      <c r="J142" t="n">
+        <v>18</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>9</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-5.907100807621321</v>
+      </c>
+      <c r="N142" t="n">
+        <v>17.60849482733105</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-28.85662506540381</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-46.46511989273486</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>27.64150238037109</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.184187145168942</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>43.93700208710371</v>
+      </c>
+      <c r="H143" t="n">
+        <v>13</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-7.04970017919125</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>24</v>
+      </c>
+      <c r="M143" t="n">
+        <v>24.71291271083544</v>
+      </c>
+      <c r="N143" t="n">
+        <v>38.75281494193477</v>
+      </c>
+      <c r="O143" t="n">
+        <v>19.5287255656665</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-19.22408937626827</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>32.85446548461914</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-17.68529042504117</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>8.844201688928404</v>
+      </c>
+      <c r="H144" t="n">
+        <v>38</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-18.2246612372529</v>
+      </c>
+      <c r="J144" t="n">
+        <v>52</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>18</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-5.054175852335432</v>
+      </c>
+      <c r="N144" t="n">
+        <v>26.52949211396957</v>
+      </c>
+      <c r="O144" t="n">
+        <v>12.63111457270574</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-13.89837754126384</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>33.14478302001953</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-5.933472717341339</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7.890827507601991</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-37.10164967037116</v>
+      </c>
+      <c r="J145" t="n">
+        <v>24</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>24</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-35.91151547767873</v>
+      </c>
+      <c r="N145" t="n">
+        <v>13.82430022494333</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-29.97804276033739</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-43.80234298528072</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>26.1368579864502</v>
+      </c>
+      <c r="E146" t="n">
+        <v>43.64139111324102</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>48.63968073893204</v>
+      </c>
+      <c r="H146" t="n">
+        <v>42</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-6.238190844178784</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>19</v>
+      </c>
+      <c r="M146" t="n">
+        <v>20.60121397558432</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4.998289625691022</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-23.04017713765671</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-28.03846676334773</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>37.45977401733398</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8.719772338797263</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>20.60724759932646</v>
+      </c>
+      <c r="H147" t="n">
+        <v>44</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-14.83964790144137</v>
+      </c>
+      <c r="J147" t="n">
+        <v>24</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-2.29839442639428</v>
+      </c>
+      <c r="N147" t="n">
+        <v>11.88747526052919</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-11.01816676519154</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-22.90564202572074</v>
       </c>
     </row>
   </sheetData>
@@ -5919,7 +7563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6132,40 +7776,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79.41176470588235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.24391677535693</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.47952043345265</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.00224283707572</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36.19311867450392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-14.5135994853914</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.949201899147</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.41176470588235</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.25925925925926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-16.47624391600721</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>19.81214505400496</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>17.86651018123582</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>30.24850467195407</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>36.10107226829614</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-14.33414939369846</v>
       </c>
     </row>
